--- a/bledy/jakosc.xlsx
+++ b/bledy/jakosc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjektyPython\place_v2\bledy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06B844-2530-4266-A668-5919EC29476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95166FA7-5C53-4ABD-A6A0-655A9F8413A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DC9C9CE-0BDE-4537-9C16-6EB9655BDFE2}"/>
+    <workbookView xWindow="375" yWindow="480" windowWidth="23685" windowHeight="14775" xr2:uid="{3DC9C9CE-0BDE-4537-9C16-6EB9655BDFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,6 @@
     <t>Grupa robocza</t>
   </si>
   <si>
-    <t>3013 + 3015</t>
-  </si>
-  <si>
-    <t>3016 + 3019</t>
-  </si>
-  <si>
     <t>3031+3032</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>Borne</t>
+  </si>
+  <si>
+    <t>3013+3015</t>
+  </si>
+  <si>
+    <t>3016+3019</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>3011</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
         <v>3012</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>3546</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>3014</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>1173</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>3018</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
@@ -662,10 +662,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>657</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>629</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>133</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <v>2377</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>1897</v>
